--- a/docs/Examples/02-CustomLayout/custom-layout.xlsx
+++ b/docs/Examples/02-CustomLayout/custom-layout.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Room Book" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'KNX GAs'!$B$3:$I$273</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'KNX GAs'!$B$3:$I$274</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Room Book'!$A$8:$I$11</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">'Room Book'!$B$8:$I$11</definedName>
   </definedNames>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
   <si>
     <t xml:space="preserve">KNX Group Addresses</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t xml:space="preserve">Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0/0/0 is a reserved KNX broadcast address. Don’t use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved KNX broadcast address</t>
   </si>
   <si>
     <t xml:space="preserve">Light &amp; Power</t>
@@ -682,6 +688,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -692,10 +702,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1010,10 +1016,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1066,524 +1072,526 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="str">
-        <f aca="false">IF(AND(ISNUMBER(A4),ISNUMBER(C4),ISNUMBER(E4),ISTEXT(D4)),A4&amp;"/"&amp;C4&amp;"/"&amp;E4,"")</f>
+    <row r="4" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0"/>
+      <c r="B4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="str">
+        <f aca="false">IF(AND(ISNUMBER(A5),ISNUMBER(C5),ISNUMBER(E5),ISTEXT(D5)),A5&amp;"/"&amp;C5&amp;"/"&amp;E5,"")</f>
         <v/>
       </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="str">
         <f aca="false">'Room Book'!$A$9</f>
         <v>B0-0-L</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <f aca="false">IF(ISTEXT(F5),VLOOKUP($F5,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F5,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F5,'Room Book'!$A$7:$I655,8,0)&amp;" - "&amp;A5&amp;" "&amp;C5,{})</f>
+      <c r="G6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f aca="false">IF(ISTEXT(F6),VLOOKUP($F6,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F6,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F6,'Room Book'!$A$7:$I655,8,0)&amp;" - "&amp;A6&amp;" "&amp;C6,{})</f>
         <v>Basement Office - Ceiling light - Light &amp; Power Switch</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="str">
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="str">
         <f aca="false">'Room Book'!A12</f>
         <v>T0-0-L</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f aca="false">IF(ISTEXT(F6),VLOOKUP($F6,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F6,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F6,'Room Book'!$A$7:$I656,8,0)&amp;" - "&amp;A6&amp;" "&amp;C6,{})</f>
+      <c r="G7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f aca="false">IF(ISTEXT(F7),VLOOKUP($F7,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F7,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F7,'Room Book'!$A$7:$I656,8,0)&amp;" - "&amp;A7&amp;" "&amp;C7,{})</f>
         <v>Top Floor Bathroom - Ceiling light - Light &amp; Power Switch</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2" t="str">
+      <c r="F8" s="2" t="str">
         <f aca="false">'Room Book'!A13</f>
         <v>T1-0-L</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f aca="false">IF(ISTEXT(F7),VLOOKUP($F7,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F7,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F7,'Room Book'!$A$7:$I657,8,0)&amp;" - "&amp;A7&amp;" "&amp;C7,{})</f>
-        <v>Top Floor Bedroom - Wall light (north) - Light &amp; Power Switch</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10"/>
       <c r="G8" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>15</v>
+      <c r="H8" s="1" t="str">
+        <f aca="false">IF(ISTEXT(F8),VLOOKUP($F8,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F8,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F8,'Room Book'!$A$7:$I657,8,0)&amp;" - "&amp;A8&amp;" "&amp;C8,{})</f>
+        <v>Top Floor Bedroom - Wall light (north) - Light &amp; Power Switch</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>10</v>
+      <c r="A9" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7"/>
+      <c r="G9" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="str">
         <f aca="false">'Room Book'!A11</f>
         <v>B1-2-P</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <f aca="false">IF(ISTEXT(F9),VLOOKUP($F9,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F9,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F9,'Room Book'!$A$7:$I659,8,0)&amp;" - "&amp;A9&amp;" "&amp;C9,{})</f>
-        <v>Basement Kitchen - Wall plug - next to bed. - Light &amp; Power Switch</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10"/>
       <c r="G10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>15</v>
+      <c r="H10" s="1" t="str">
+        <f aca="false">IF(ISTEXT(F10),VLOOKUP($F10,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F10,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F10,'Room Book'!$A$7:$I659,8,0)&amp;" - "&amp;A10&amp;" "&amp;C10,{})</f>
+        <v>Basement Kitchen - Wall plug - next to bed. - Light &amp; Power Switch</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>10</v>
+      <c r="A11" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10" t="str">
-        <f aca="false">E5</f>
-        <v>DPST-1-1</v>
-      </c>
-      <c r="F11" s="1" t="str">
-        <f aca="false">F5</f>
-        <v>B0-0-L</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E11" s="7"/>
       <c r="G11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f aca="false">IF(ISTEXT(F11),VLOOKUP($F11,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F11,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F11,'Room Book'!$A$7:$I661,8,0)&amp;" - "&amp;A11&amp;" "&amp;C11,{})</f>
-        <v>Basement Office - Ceiling light - Light &amp; Power Status</v>
+        <v>6</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>10</v>
+      <c r="A12" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="10" t="str">
+      <c r="E12" s="7" t="str">
         <f aca="false">E6</f>
         <v>DPST-1-1</v>
       </c>
       <c r="F12" s="1" t="str">
         <f aca="false">F6</f>
-        <v>T0-0-L</v>
+        <v>B0-0-L</v>
       </c>
       <c r="G12" s="2" t="n">
+        <f aca="false">G6</f>
         <v>1</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f aca="false">IF(ISTEXT(F12),VLOOKUP($F12,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F12,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F12,'Room Book'!$A$7:$I662,8,0)&amp;" - "&amp;A12&amp;" "&amp;C12,{})</f>
-        <v>Top Floor Bathroom - Ceiling light - Light &amp; Power Status</v>
+        <f aca="false">IF(ISTEXT(F12),VLOOKUP($F12,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F12,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F12,'Room Book'!$A$7:$I661,8,0)&amp;" - "&amp;A12&amp;" "&amp;C12,{})</f>
+        <v>Basement Office - Ceiling light - Light &amp; Power Status</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>10</v>
+      <c r="A13" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="10" t="str">
+      <c r="E13" s="7" t="str">
         <f aca="false">E7</f>
         <v>DPST-1-1</v>
       </c>
       <c r="F13" s="1" t="str">
         <f aca="false">F7</f>
+        <v>T0-0-L</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <f aca="false">G7</f>
+        <v>2</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f aca="false">IF(ISTEXT(F13),VLOOKUP($F13,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F13,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F13,'Room Book'!$A$7:$I662,8,0)&amp;" - "&amp;A13&amp;" "&amp;C13,{})</f>
+        <v>Top Floor Bathroom - Ceiling light - Light &amp; Power Status</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="str">
+        <f aca="false">E8</f>
+        <v>DPST-1-1</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f aca="false">F8</f>
         <v>T1-0-L</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="1" t="str">
-        <f aca="false">IF(ISTEXT(F13),VLOOKUP($F13,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F13,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F13,'Room Book'!$A$7:$I663,8,0)&amp;" - "&amp;A13&amp;" "&amp;C13,{})</f>
+      <c r="G14" s="2" t="n">
+        <f aca="false">G8</f>
+        <v>3</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f aca="false">IF(ISTEXT(F14),VLOOKUP($F14,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F14,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F14,'Room Book'!$A$7:$I663,8,0)&amp;" - "&amp;A14&amp;" "&amp;C14,{})</f>
         <v>Top Floor Bedroom - Wall light (north) - Light &amp; Power Status</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>10</v>
+      <c r="A15" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="10" t="str">
-        <f aca="false">E9</f>
+      <c r="E15" s="7"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2" t="n">
+        <f aca="false">G9</f>
+        <v>4</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7" t="str">
+        <f aca="false">E10</f>
         <v>DPST-1-1</v>
       </c>
-      <c r="F15" s="1" t="str">
-        <f aca="false">F9</f>
+      <c r="F16" s="1" t="str">
+        <f aca="false">F10</f>
         <v>B1-2-P</v>
       </c>
-      <c r="G15" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f aca="false">IF(ISTEXT(F15),VLOOKUP($F15,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F15,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F15,'Room Book'!$A$7:$I665,8,0)&amp;" - "&amp;A15&amp;" "&amp;C15,{})</f>
+      <c r="G16" s="2" t="n">
+        <f aca="false">G10</f>
+        <v>5</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f aca="false">IF(ISTEXT(F16),VLOOKUP($F16,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F16,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F16,'Room Book'!$A$7:$I665,8,0)&amp;" - "&amp;A16&amp;" "&amp;C16,{})</f>
         <v>Basement Kitchen - Wall plug - next to bed. - Light &amp; Power Status</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="G16" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="G17" s="2" t="n">
+        <f aca="false">G11</f>
+        <v>6</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="12" t="str">
+      <c r="B19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="12" t="str">
         <f aca="false">'Room Book'!A10</f>
         <v>B0-1-B</v>
       </c>
-      <c r="G18" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1" t="str">
-        <f aca="false">IF(ISTEXT(F18),VLOOKUP($F18,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F18,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F18,'Room Book'!$A$7:$I668,8,0)&amp;" - "&amp;A18&amp;" "&amp;C18,{})</f>
+      <c r="G19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f aca="false">IF(ISTEXT(F19),VLOOKUP($F19,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F19,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F19,'Room Book'!$A$7:$I668,8,0)&amp;" - "&amp;A19&amp;" "&amp;C19,{})</f>
         <v>Basement Office - Blinds - Blinds Up/Down</v>
       </c>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="12" t="str">
+      <c r="B20" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="12" t="str">
         <f aca="false">'Room Book'!A14</f>
         <v>T1-1-B</v>
       </c>
-      <c r="G19" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="str">
-        <f aca="false">IF(ISTEXT(F19),VLOOKUP($F19,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F19,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F19,'Room Book'!$A$7:$I669,8,0)&amp;" - "&amp;A19&amp;" "&amp;C19,{})</f>
+      <c r="G20" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f aca="false">IF(ISTEXT(F20),VLOOKUP($F20,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F20,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F20,'Room Book'!$A$7:$I669,8,0)&amp;" - "&amp;A20&amp;" "&amp;C20,{})</f>
         <v>Top Floor Bedroom - Blinds (east) - Blinds Up/Down</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="12" t="str">
-        <f aca="false">F18</f>
-        <v>B0-1-B</v>
-      </c>
-      <c r="G20" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="str">
-        <f aca="false">IF(ISTEXT(F20),VLOOKUP($F20,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F20,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F20,'Room Book'!$A$7:$I670,8,0)&amp;" - "&amp;A20&amp;" "&amp;C20,{})</f>
-        <v>Basement Office - Blinds - Blinds Stop</v>
-      </c>
-      <c r="I20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="12" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D21" s="12" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F21" s="12" t="str">
         <f aca="false">F19</f>
-        <v>T1-1-B</v>
+        <v>B0-1-B</v>
       </c>
       <c r="G21" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f aca="false">IF(ISTEXT(F21),VLOOKUP($F21,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F21,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F21,'Room Book'!$A$7:$I671,8,0)&amp;" - "&amp;A21&amp;" "&amp;C21,{})</f>
-        <v>Top Floor Bedroom - Blinds (east) - Blinds Stop</v>
-      </c>
+        <f aca="false">IF(ISTEXT(F21),VLOOKUP($F21,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F21,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F21,'Room Book'!$A$7:$I670,8,0)&amp;" - "&amp;A21&amp;" "&amp;C21,{})</f>
+        <v>Basement Office - Blinds - Blinds Stop</v>
+      </c>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" s="12" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="11" t="str">
-        <f aca="false">F18</f>
-        <v>B0-1-B</v>
+        <v>14</v>
+      </c>
+      <c r="F22" s="12" t="str">
+        <f aca="false">F20</f>
+        <v>T1-1-B</v>
       </c>
       <c r="G22" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f aca="false">IF(ISTEXT(F22),VLOOKUP($F22,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F22,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F22,'Room Book'!$A$7:$I672,8,0)&amp;" - "&amp;A22&amp;" "&amp;C22,{})</f>
-        <v>Basement Office - Blinds - Blinds Absolute Position</v>
-      </c>
-      <c r="I22" s="13"/>
+        <f aca="false">IF(ISTEXT(F22),VLOOKUP($F22,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F22,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F22,'Room Book'!$A$7:$I671,8,0)&amp;" - "&amp;A22&amp;" "&amp;C22,{})</f>
+        <v>Top Floor Bedroom - Blinds (east) - Blinds Stop</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B23" s="12" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D23" s="12" t="n">
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F23" s="11" t="str">
         <f aca="false">F19</f>
-        <v>T1-1-B</v>
+        <v>B0-1-B</v>
       </c>
       <c r="G23" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f aca="false">IF(ISTEXT(F23),VLOOKUP($F23,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F23,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F23,'Room Book'!$A$7:$I673,8,0)&amp;" - "&amp;A23&amp;" "&amp;C23,{})</f>
-        <v>Top Floor Bedroom - Blinds (east) - Blinds Absolute Position</v>
-      </c>
+        <f aca="false">IF(ISTEXT(F23),VLOOKUP($F23,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F23,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F23,'Room Book'!$A$7:$I672,8,0)&amp;" - "&amp;A23&amp;" "&amp;C23,{})</f>
+        <v>Basement Office - Blinds - Blinds Absolute Position</v>
+      </c>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B24" s="12" t="n">
         <v>1</v>
@@ -1592,54 +1600,82 @@
         <v>23</v>
       </c>
       <c r="D24" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="12" t="str">
-        <f aca="false">F18</f>
-        <v>B0-1-B</v>
+        <v>24</v>
+      </c>
+      <c r="F24" s="11" t="str">
+        <f aca="false">F20</f>
+        <v>T1-1-B</v>
       </c>
       <c r="G24" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f aca="false">IF(ISTEXT(F24),VLOOKUP($F24,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F24,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F24,'Room Book'!$A$7:$I674,8,0)&amp;" - "&amp;A24&amp;" "&amp;C24,{})</f>
-        <v>Basement Office - Blinds - Blinds Status Position</v>
-      </c>
-      <c r="I24" s="13"/>
+        <f aca="false">IF(ISTEXT(F24),VLOOKUP($F24,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F24,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F24,'Room Book'!$A$7:$I673,8,0)&amp;" - "&amp;A24&amp;" "&amp;C24,{})</f>
+        <v>Top Floor Bedroom - Blinds (east) - Blinds Absolute Position</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B25" s="12" t="n">
         <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D25" s="12" t="n">
         <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F25" s="12" t="str">
         <f aca="false">F19</f>
+        <v>B0-1-B</v>
+      </c>
+      <c r="G25" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f aca="false">IF(ISTEXT(F25),VLOOKUP($F25,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F25,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F25,'Room Book'!$A$7:$I674,8,0)&amp;" - "&amp;A25&amp;" "&amp;C25,{})</f>
+        <v>Basement Office - Blinds - Blinds Status Position</v>
+      </c>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="12" t="str">
+        <f aca="false">F20</f>
         <v>T1-1-B</v>
       </c>
-      <c r="G25" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1" t="str">
-        <f aca="false">IF(ISTEXT(F25),VLOOKUP($F25,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F25,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F25,'Room Book'!$A$7:$I675,8,0)&amp;" - "&amp;A25&amp;" "&amp;C25,{})</f>
+      <c r="G26" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f aca="false">IF(ISTEXT(F26),VLOOKUP($F26,'Room Book'!$A$7:$I$634,2,0)&amp;" "&amp;VLOOKUP($F26,'Room Book'!$A$7:$I$634,3,0)&amp;" - "&amp;VLOOKUP($F26,'Room Book'!$A$7:$I675,8,0)&amp;" - "&amp;A26&amp;" "&amp;C26,{})</f>
         <v>Top Floor Bedroom - Blinds (east) - Blinds Status Position</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:I273"/>
+  <autoFilter ref="B3:I274"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1678,7 +1714,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1686,31 +1722,31 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1719,28 +1755,28 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>9</v>
@@ -1752,25 +1788,25 @@
         <v>B0-0-L</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -1780,25 +1816,25 @@
         <v>B0-1-B</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -1808,25 +1844,25 @@
         <v>B1-2-P</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -1836,25 +1872,25 @@
         <v>T0-0-L</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,25 +1899,25 @@
         <v>T1-0-L</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,25 +1926,25 @@
         <v>T1-1-B</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
